--- a/KSFramework/Product/SettingSource/GameConfig+Base.xlsx
+++ b/KSFramework/Product/SettingSource/GameConfig+Base.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>Id</t>
   </si>
@@ -89,6 +89,24 @@
   </si>
   <si>
     <t>井号开头的，注释行</t>
+  </si>
+  <si>
+    <t>#if I18N_ZH_CN</t>
+  </si>
+  <si>
+    <t>I18NKey</t>
+  </si>
+  <si>
+    <t>I am zh_CN</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>#if I18N_ZH_TW</t>
+  </si>
+  <si>
+    <t>I am zh_TW</t>
   </si>
 </sst>
 </file>
@@ -97,9 +115,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -118,6 +136,97 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -127,18 +236,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color indexed="62"/>
@@ -146,106 +243,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,91 +278,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,35 +419,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,25 +450,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +481,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
@@ -492,6 +507,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -500,10 +524,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -512,140 +536,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -668,6 +695,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,17 +1158,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
@@ -1141,55 +1177,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
@@ -1202,6 +1238,50 @@
       </c>
       <c r="B6" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:1">
+      <c r="A11" s="12"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
